--- a/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
@@ -425,118 +425,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>策略名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>低价小盘股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20250312</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SALE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>合金投资</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-26.24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>低价小盘股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20250312</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="G3" t="n">
-        <v>24.91</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
@@ -425,14 +425,184 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>策略名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>连续五年优质股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>大连重工</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>连续五年优质股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>北方华创</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>432.19</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>连续五年优质股战法</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>英维克</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>47.07</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-33.12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
@@ -425,184 +425,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>策略名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>连续五年优质股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20250314</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>大连重工</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>30.59</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>连续五年优质股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20250314</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>北方华创</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>432.19</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>连续五年优质股战法</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>20250314</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>英维克</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>47.07</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29.98</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>20250314</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SALE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-33.12</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
@@ -425,14 +425,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>策略名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="G2" t="n">
+        <v>31.19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>连续五年优质股战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20250319</t>
+          <t>20250320</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,14 +493,80 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>北方华创</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>48.06</v>
+        <v>430</v>
       </c>
       <c r="G2" t="n">
-        <v>31.19</v>
+        <v>-28.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>连续五年优质股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>英维克</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-27.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>连续五年优质股战法</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>大连重工</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-35.74</v>
       </c>
     </row>
   </sheetData>

--- a/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="策略今天调仓" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="策略今天调仓" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>连续五年优质股战法</t>
+          <t>高现金毛利战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20250320</t>
+          <t>20250321</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,14 +493,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>北方华创</t>
+          <t>凌霄泵业</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>430</v>
+        <v>18.04</v>
       </c>
       <c r="G2" t="n">
-        <v>-28.32</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="3">
@@ -511,12 +511,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20250320</t>
+          <t>20250321</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,14 +526,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>英维克</t>
+          <t>北方华创</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>45</v>
+        <v>430.01</v>
       </c>
       <c r="G3" t="n">
-        <v>-27.21</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="4">
@@ -544,12 +544,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20250320</t>
+          <t>20250321</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,14 +559,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>大连重工</t>
+          <t>英维克</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.36</v>
+        <v>44.8</v>
       </c>
       <c r="G4" t="n">
-        <v>-35.74</v>
+        <v>30.54</v>
       </c>
     </row>
   </sheetData>

--- a/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>时间</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
         </is>
       </c>
     </row>
@@ -478,95 +478,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20250321</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SALE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+          <t>国光股份</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>凌霄泵业</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-3.84</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>连续五年优质股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20250321</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>北方华创</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>430.01</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30.03</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>连续五年优质股战法</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>20250321</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>英维克</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>30.54</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
@@ -425,85 +425,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>策略名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>高现金毛利战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国光股份</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>20250324</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
@@ -425,14 +425,151 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>策略名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>焦点科技</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-33.19</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>高现金毛利战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国光股份</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>连续五年优质股战法</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大连重工</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-32.67</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,24 +473,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>高现金毛利战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>焦点科技</t>
+          <t>凌霄泵业</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41.76</v>
+        <v>18.09</v>
       </c>
       <c r="E2" t="n">
-        <v>-33.19</v>
+        <v>7.86</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -499,14 +499,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20250331</t>
+          <t>20250401</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>高现金毛利战法</t>
+          <t>连续五年优质股战法</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,14 +516,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国光股份</t>
+          <t>大连重工</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14.69</v>
+        <v>6.21</v>
       </c>
       <c r="E3" t="n">
-        <v>23.05</v>
+        <v>34.65</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -532,40 +532,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20250331</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>连续五年优质股战法</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SALE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大连重工</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-32.67</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>20250331</t>
+          <t>20250401</t>
         </is>
       </c>
     </row>

--- a/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/策略今天调仓.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,118 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>策略名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>高现金毛利战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>凌霄泵业</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>18.09</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>20250401</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>连续五年优质股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大连重工</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34.65</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>20250401</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>